--- a/data.xlsx
+++ b/data.xlsx
@@ -14,17 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Specie</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Abreviated History</t>
+  </si>
+  <si>
+    <t>Aauto</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
   <si>
     <t>aaaa</t>
   </si>
   <si>
-    <t>TestCaseName</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>aaa</t>
   </si>
   <si>
@@ -37,33 +64,9 @@
     <t>Data Send</t>
   </si>
   <si>
-    <t>Nacimiento</t>
-  </si>
-  <si>
     <t>Data Expected</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>Specie</t>
-  </si>
-  <si>
-    <t>Breed</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Abreviated History</t>
-  </si>
-  <si>
-    <t>auto1</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -88,49 +91,19 @@
     <t>DataProviderWithExcel_003</t>
   </si>
   <si>
+    <t>alejandro.gatolazaro@gmail.com</t>
+  </si>
+  <si>
     <t>http://192.168.1.150:8080/vetsync/v1/orders</t>
   </si>
   <si>
-    <t>alejandro.gatolazaro@gmail.com</t>
-  </si>
-  <si>
-    <t>Alex1</t>
-  </si>
-  <si>
-    <t>auto2</t>
-  </si>
-  <si>
-    <t>Alex2</t>
-  </si>
-  <si>
-    <t>auto3</t>
-  </si>
-  <si>
-    <t>Alex3</t>
-  </si>
-  <si>
-    <t>auto4</t>
-  </si>
-  <si>
-    <t>Alex4</t>
-  </si>
-  <si>
     <t>PracticeRef</t>
   </si>
   <si>
-    <t>auto5</t>
-  </si>
-  <si>
     <t>VUEOrder12346</t>
   </si>
   <si>
-    <t>Alex5</t>
-  </si>
-  <si>
     <t>OwnerID</t>
-  </si>
-  <si>
-    <t>Alex</t>
   </si>
   <si>
     <t>VetID</t>
@@ -189,10 +162,10 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -240,79 +213,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -337,99 +310,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -450,47 +426,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -509,11 +485,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>44</v>
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
